--- a/БД.xlsx
+++ b/БД.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\GeekBrains\Семинары\6. Знакомство с БД\2. Работа с данными из разных таблиц\Home_work_6.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\GeekBrains\Семинары\6. Знакомство с БД\2. Работа с данными из разных таблиц\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64298B09-3D81-4AB6-B6D6-B847A5873219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7985F659-A66D-4C84-9FE6-E7F5BC1C2D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7A058B35-8D24-4FE6-AEF5-16C6D3004AFB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Задания к ДЗ" sheetId="2" r:id="rId1"/>
-    <sheet name="Исходные таблицы" sheetId="3" r:id="rId2"/>
-    <sheet name="Общий список" sheetId="1" r:id="rId3"/>
+    <sheet name="выполненное дз" sheetId="4" r:id="rId1"/>
+    <sheet name="Задания к ДЗ" sheetId="2" r:id="rId2"/>
+    <sheet name="Исходные таблицы" sheetId="3" r:id="rId3"/>
+    <sheet name="Общий список" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="71">
   <si>
     <t>ФИО               </t>
   </si>
@@ -476,6 +477,34 @@
   </si>
   <si>
     <t>для поездок</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.95"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">FULL JOIN Люди, Адреса ON  id = Чей адрес </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -534,7 +563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -575,11 +604,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -618,6 +688,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,10 +1011,699 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66604DD9-4D3A-4D70-B5A3-24F96146605A}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>32916</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>32916</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>32916</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>32916</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>32916</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>37152</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>30429</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>35936</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43972</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3">
+        <v>32916</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3">
+        <v>32916</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
+        <v>32916</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>37152</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3">
+        <v>30429</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3">
+        <v>35936</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3">
+        <v>32916</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3">
+        <v>32916</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3">
+        <v>32916</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3">
+        <v>37152</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="3">
+        <v>30429</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="3">
+        <v>35936</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="3">
+        <v>43972</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BF781A-2D31-4F2F-8C07-8484AED1F09C}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1049,7 +1817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4930B8-650C-44B4-B73A-2CA231B3EFBC}">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -1460,7 +2228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C4CE24-A269-4D76-B906-74BE58D1308A}">
   <dimension ref="A1:I14"/>
   <sheetViews>
